--- a/数据整理/stocks/A股/上证主板/601898-中煤能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601898-中煤能源.xlsx
@@ -451,183 +451,243 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2489</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1733</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>519162</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>新华增怡债券A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>20.11</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>0.96</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>519163</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>新华增怡债券C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>20.11</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>0.96</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161032</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国中证煤炭指数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>91.02</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>168204</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中融中证煤炭指数</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>92.72</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>515220</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰中证煤炭ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>96.60</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -678,26 +748,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004119</t>
+          <t>008099</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发创新驱动灵活配置混合</t>
+          <t>广发价值领先混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>45.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5228</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007040</t>
+          <t>270001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>新疆前海联合泳隆灵活配置混合C</t>
+          <t>广发聚富混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>16.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>59.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9933</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -734,26 +824,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>270001</t>
+          <t>005233</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发聚富混合</t>
+          <t>广发睿毅领先混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>59.38</t>
+          <t>13.46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>60.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7591</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -762,26 +862,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010427</t>
+          <t>001763</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>兴银策略智选混合A</t>
+          <t>广发多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.43</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>57.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5288</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -790,26 +900,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010428</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>兴银策略智选混合C</t>
+          <t>国泰中证煤炭ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.43</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -818,25 +938,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>510170</t>
+          <t>161724</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国联安上证大宗商品股票ETF</t>
+          <t>招商中证煤炭等权指数（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>96.15</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>004119</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰中证煤炭ETF</t>
+          <t>广发创新驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>96.99</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001763</t>
+          <t>161032</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发多策略灵活配置混合</t>
+          <t>富国中证煤炭指数</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>57.89</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>159945</t>
+          <t>005273</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发中证全指能源ETF</t>
+          <t>华商可转债债券A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>99.33</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>42.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>160620</t>
+          <t>168204</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鹏华中证A股资源产业指数（LOF）</t>
+          <t>中融中证煤炭指数</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>161032</t>
+          <t>510170</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>富国中证煤炭指数</t>
+          <t>国联安上证大宗商品股票ETF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>96.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -986,25 +1166,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>161724</t>
+          <t>005284</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>招商中证煤炭等权指数（LOF）</t>
+          <t>华商可转债债券C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>42.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005233</t>
+          <t>010427</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>广发睿毅领先混合</t>
+          <t>兴银策略智选混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>60.72</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005273</t>
+          <t>160620</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华商可转债债券A</t>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>42.82</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005284</t>
+          <t>010428</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华商可转债债券C</t>
+          <t>兴银策略智选混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>42.82</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>168204</t>
+          <t>159945</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中融中证煤炭指数</t>
+          <t>广发中证全指能源ETF</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1126,26 +1356,30 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008099</t>
+          <t>007040</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>广发价值领先混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>72.96</t>
-        </is>
-      </c>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601898-中煤能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601898-中煤能源.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1364,7 +1365,6 @@
           <t>新疆前海联合泳隆灵活配置混合C</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>87.00</t>
@@ -1379,6 +1379,744 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>133.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.5010</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>66.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2515</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9685</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4445</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2542</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2096</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>57.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1922</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0570</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0474</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>59.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8520</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5090</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>73.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3902</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3614</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2874</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011084</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011085</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601898-中煤能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601898-中煤能源.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2123,4 +2124,934 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6323</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3188</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9550</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7139</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4986</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3236</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1339</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>64.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8924</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7352</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7201</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6101</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5252</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5157</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4922</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4888</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>65.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2243</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601898-中煤能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601898-中煤能源.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3054,4 +3055,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601898-中煤能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601898-中煤能源.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3063,7 +3064,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3074,17 +3075,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3094,14 +3115,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.16</v>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9681</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3110,14 +3153,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.42</v>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8632</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3126,14 +3191,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.74</v>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2661</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3142,13 +3229,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601898-中煤能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601898-中煤能源.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3272,7 +3273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3283,17 +3284,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3303,14 +3324,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.14</v>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6968</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3319,14 +3362,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.16</v>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4899</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3335,14 +3400,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.42</v>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2743</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3351,14 +3438,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.74</v>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1451</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3367,13 +3476,697 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>67.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000165</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>67.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014014</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>40.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014015</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>40.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>38.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>38.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601898-中煤能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601898-中煤能源.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4049,7 +4050,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4060,17 +4061,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4080,14 +4101,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.2</v>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1850</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -4096,14 +4139,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.14</v>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8776</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -4112,14 +4177,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>19.16</v>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8209</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -4128,14 +4215,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>23.42</v>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7684</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -4144,14 +4253,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.74</v>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7385</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -4160,13 +4291,2347 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6786</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6543</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008979</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家民丰回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6370</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6061</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5000</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4260</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4188</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013275</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3643</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3518</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>40.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2078</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1738</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012995</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实策略视野三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013596</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>48.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014135</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519197</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家颐达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013674</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城价值甄选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>39.38</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004617</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信鑫稳回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>30.60</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011545</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>71.88</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004618</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>建信鑫稳回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>30.60</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014608</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014136</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011546</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013675</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长城价值甄选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>39.38</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013055</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014609</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>39.43</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>40.63</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>39.43</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013056</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>63</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601898-中煤能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601898-中煤能源.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D2" t="n">
-        <v>11.65</v>
+        <v>13.14</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="D3" t="n">
-        <v>2.2</v>
+        <v>11.65</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>19.16</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>23.42</v>
+        <v>19.16</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>5.74</v>
+        <v>23.42</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.55</v>
       </c>
     </row>
@@ -600,6 +617,2300 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1192</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1333</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8747</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7841</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7678</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008979</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家民丰回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7589</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6149</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5891</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5474</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4435</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3784</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519017</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成积极成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3739</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013275</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3595</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3222</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3022</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015652</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2928</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000165</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>60.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2535</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2476</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>61.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2266</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2188</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>61.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2020</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1905</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014103</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519197</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家颐达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>45.36</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1253</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015566</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000587</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005295</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>诺德天富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银河定投宝腾讯济安指数</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013596</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002358</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20.72</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015572</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011616</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.72</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000585</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实对冲套利定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>36.39</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>24.15</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>68.03</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>016620</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014104</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014112</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实对冲套利定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>36.39</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>673040</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>673043</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>24.15</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>016347</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）E</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>43.92</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>43.92</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>015526</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>016814</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3047,7 +5358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3823,7 +6134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4031,7 +6342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4961,7 +7272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5699,7 +8010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6394,7 +8705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601898-中煤能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601898-中煤能源.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>13.14</v>
+        <v>9.279999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D3" t="n">
-        <v>11.65</v>
+        <v>13.14</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="D4" t="n">
-        <v>2.2</v>
+        <v>11.65</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>19.16</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>23.42</v>
+        <v>19.16</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>5.74</v>
+        <v>23.42</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,276 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2489</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1733</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519162</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新华增怡债券A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519163</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华增怡债券C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +880,1426 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9264</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>017787</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2556</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7545</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6528</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6361</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6294</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5381</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013275</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4991</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008979</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家民丰回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4540</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3240</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3109</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015652</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2297</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2264</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014103</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>016620</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015566</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519197</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家颐达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>44.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015572</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014104</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>016814</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.79</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>015526</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2910,7 +4593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5358,7 +7041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6134,7 +7817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6342,7 +8025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7272,7 +8955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8010,7 +9693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8703,250 +10386,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515220</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰中证煤炭ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>96.60</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2489</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161032</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国中证煤炭指数</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.02</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1733</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>168204</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中融中证煤炭指数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.72</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1230</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519162</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>新华增怡债券A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>20.11</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519163</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>新华增怡债券C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>20.11</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>